--- a/biology/Botanique/Gustav_Mann/Gustav_Mann.xlsx
+++ b/biology/Botanique/Gustav_Mann/Gustav_Mann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustav Mann, né à Hanovre le 20 janvier 1836, décédé le 22 juin 1916, est un botaniste prussien qui dirigea plusieurs expéditions en Afrique de l'Ouest et fut aussi jardinier des Jardins botaniques royaux de Kew.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut choisi par William Jackson Hooker, directeur des Jardins botaniques royaux de Kew pour participer à l'expédition de William Balfour Baikie en Afrique occidentale d'où il envoya de nombreux échantillons à Kew. Il prit la direction d'une expédition le long du fleuve Niger, en remplacement de Charles Barter tombé malade.
 Plus tard, il parvint avec d'autres à Fernando Po, une île de Guinée équatoriale, et à partir de là débarqua au Cameroun. En 1861, il fut avec le capitaine Richard Francis Burton le premier Européen à réussir l'ascension du mont Cameroun, le point culminant de l'Afrique de l'Ouest (4 095 m). C'est en parcourant les chaînes montagneuses du Cameroun qu'il fit la découverte de Prunus africana – parfois appelé « Prunier d'Afrique » –, un arbre dont l'écorce constitue un traitement efficace dans l'hypertrophie bénigne de la prostate.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1864 : avec Hermann Wendland (1825-1903) et Sir Joseph Dalton Hooker (1817-1911), On the palms of western tropical Africa. R. Taylor, 1864, Londres.
 1898 : List of Assam ferns. C. Wolf &amp; Sohn, Munich</t>
